--- a/texts/画面設計書.xlsx
+++ b/texts/画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonbi\OneDrive\ドキュメント\tech\4th\team_dev\texts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452F01F4-A173-4C1E-A574-6646DCDEAF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE52B1D-7E95-4FCF-AF55-ECD32869A550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{2B9BC09C-440C-4ED3-BE6B-BC179E2902BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{2B9BC09C-440C-4ED3-BE6B-BC179E2902BB}"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="1" r:id="rId1"/>
@@ -2299,6 +2299,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2352,15 +2362,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2377,16 +2387,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6958,7 +6958,11 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>商品欄</a:t>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>名</a:t>
           </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
@@ -11011,14 +11015,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="70"/>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="71"/>
@@ -11059,10 +11063,10 @@
       <c r="B4" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="116"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="73"/>
       <c r="F4" s="73" t="s">
         <v>30</v>
@@ -11076,10 +11080,10 @@
       <c r="B5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="147" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="116"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
       <c r="G5" s="77"/>
@@ -11089,10 +11093,10 @@
       <c r="B6" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
       <c r="G6" s="81"/>
@@ -11226,10 +11230,10 @@
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="116" t="s">
+      <c r="F28" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="132"/>
+      <c r="G28" s="141"/>
     </row>
     <row r="29" spans="1:7" ht="18.75">
       <c r="A29" s="71"/>
@@ -11243,10 +11247,10 @@
         <v>158</v>
       </c>
       <c r="E29" s="48"/>
-      <c r="F29" s="138" t="s">
+      <c r="F29" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="132"/>
+      <c r="G29" s="141"/>
     </row>
     <row r="30" spans="1:7" ht="76.5">
       <c r="A30" s="71"/>
@@ -11262,10 +11266,10 @@
       <c r="E30" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="138" t="s">
+      <c r="F30" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="G30" s="132"/>
+      <c r="G30" s="141"/>
     </row>
     <row r="31" spans="1:7" ht="76.5">
       <c r="A31" s="71"/>
@@ -11281,10 +11285,10 @@
       <c r="E31" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="138" t="s">
+      <c r="F31" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="132"/>
+      <c r="G31" s="141"/>
     </row>
     <row r="32" spans="1:7" ht="76.5">
       <c r="A32" s="71"/>
@@ -11298,8 +11302,8 @@
         <v>126</v>
       </c>
       <c r="E32" s="48"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="132"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="141"/>
     </row>
     <row r="33" spans="1:7" ht="18.75">
       <c r="A33" s="71"/>
@@ -11307,8 +11311,8 @@
       <c r="C33" s="48"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="132"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="141"/>
     </row>
     <row r="34" spans="1:7" ht="18.75">
       <c r="A34" s="71"/>
@@ -11316,8 +11320,8 @@
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
       <c r="E34" s="48"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="132"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="141"/>
     </row>
     <row r="35" spans="1:7" ht="19.5" thickBot="1">
       <c r="A35" s="71"/>
@@ -11325,8 +11329,8 @@
       <c r="C35" s="88"/>
       <c r="D35" s="88"/>
       <c r="E35" s="88"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="140"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
     </row>
     <row r="36" spans="1:7" ht="18.75">
       <c r="A36" s="82"/>
@@ -14262,7 +14266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2791C32-BC25-482C-9690-DF65A6F33587}">
   <dimension ref="B1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -14279,24 +14283,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="12" t="s">
         <v>23</v>
       </c>
@@ -14308,10 +14312,10 @@
       <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="111"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
         <v>27</v>
@@ -14324,10 +14328,10 @@
       <c r="B4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="113"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
         <v>30</v>
@@ -14340,10 +14344,10 @@
       <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="115"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
@@ -14352,10 +14356,10 @@
       <c r="B6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="104"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
@@ -14527,8 +14531,8 @@
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="151"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="11" t="s">
@@ -14543,10 +14547,10 @@
       <c r="E28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="150" t="s">
+      <c r="F28" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="152"/>
+      <c r="G28" s="110"/>
     </row>
     <row r="29" spans="2:7" ht="27.75">
       <c r="B29" s="11" t="s">
@@ -14558,13 +14562,13 @@
       <c r="D29" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="148" t="s">
+      <c r="E29" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="150" t="s">
+      <c r="F29" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="152"/>
+      <c r="G29" s="110"/>
     </row>
     <row r="30" spans="2:7" ht="27.75">
       <c r="B30" s="11" t="s">
@@ -14576,13 +14580,13 @@
       <c r="D30" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="148" t="s">
+      <c r="E30" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="150" t="s">
+      <c r="F30" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="152"/>
+      <c r="G30" s="110"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="11" t="s">
@@ -14595,18 +14599,18 @@
         <v>53</v>
       </c>
       <c r="E31" s="16"/>
-      <c r="F31" s="150" t="s">
+      <c r="F31" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="152"/>
+      <c r="G31" s="110"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1">
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="96"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="152"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="32" t="s">
@@ -14615,8 +14619,8 @@
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="153"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="108"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="23" t="s">
@@ -14625,8 +14629,8 @@
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="151"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="107"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="23" t="s">
@@ -14674,17 +14678,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14713,14 +14717,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13.5" customHeight="1">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="11" t="s">
@@ -14758,10 +14762,10 @@
       <c r="B4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="114">
+      <c r="C4" s="122">
         <v>2</v>
       </c>
-      <c r="D4" s="115"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
         <v>30</v>
@@ -14774,10 +14778,10 @@
       <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="115"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
@@ -14786,10 +14790,10 @@
       <c r="B6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="104"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
@@ -14977,10 +14981,10 @@
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="116" t="s">
+      <c r="F28" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="116"/>
+      <c r="G28" s="124"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="47" t="s">
@@ -14993,10 +14997,10 @@
         <v>53</v>
       </c>
       <c r="E29" s="48"/>
-      <c r="F29" s="116" t="s">
+      <c r="F29" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="116"/>
+      <c r="G29" s="124"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="47" t="s">
@@ -15009,26 +15013,26 @@
         <v>66</v>
       </c>
       <c r="E30" s="48"/>
-      <c r="F30" s="116" t="s">
+      <c r="F30" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="116"/>
+      <c r="G30" s="124"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="47"/>
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1">
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
       <c r="D32" s="50"/>
       <c r="E32" s="50"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="38" t="s">
@@ -15117,52 +15121,52 @@
       <c r="G2" s="102"/>
     </row>
     <row r="3" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="124" t="s">
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="123"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
     </row>
     <row r="4" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="124" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="123"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="129" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="121" t="s">
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="123"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="131"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="121" t="s">
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="122"/>
-      <c r="G6" s="123"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15202,14 +15206,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="57"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="130"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:7" ht="12">
       <c r="A2" s="58"/>
@@ -15250,10 +15254,10 @@
       <c r="B4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="115"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
         <v>30</v>
@@ -15267,10 +15271,10 @@
       <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="115"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
@@ -15280,10 +15284,10 @@
       <c r="B6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="104"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
@@ -15417,10 +15421,10 @@
       <c r="E28" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="115" t="s">
+      <c r="F28" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="131"/>
+      <c r="G28" s="139"/>
     </row>
     <row r="29" spans="1:7" s="66" customFormat="1" ht="12">
       <c r="A29" s="62"/>
@@ -15434,10 +15438,10 @@
         <v>80</v>
       </c>
       <c r="E29" s="65"/>
-      <c r="F29" s="125" t="s">
+      <c r="F29" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="126"/>
+      <c r="G29" s="134"/>
     </row>
     <row r="30" spans="1:7" s="66" customFormat="1" ht="12">
       <c r="A30" s="62"/>
@@ -15451,10 +15455,10 @@
         <v>80</v>
       </c>
       <c r="E30" s="65"/>
-      <c r="F30" s="125" t="s">
+      <c r="F30" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="126"/>
+      <c r="G30" s="134"/>
     </row>
     <row r="31" spans="1:7" s="66" customFormat="1" ht="12">
       <c r="A31" s="62"/>
@@ -15468,10 +15472,10 @@
         <v>80</v>
       </c>
       <c r="E31" s="64"/>
-      <c r="F31" s="125" t="s">
+      <c r="F31" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="126"/>
+      <c r="G31" s="134"/>
     </row>
     <row r="32" spans="1:7" ht="12.75" thickBot="1">
       <c r="A32" s="58"/>
@@ -15485,10 +15489,10 @@
         <v>80</v>
       </c>
       <c r="E32" s="31"/>
-      <c r="F32" s="104" t="s">
+      <c r="F32" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="127"/>
+      <c r="G32" s="135"/>
     </row>
     <row r="33" spans="1:7" ht="13.5">
       <c r="A33" s="61"/>
@@ -15610,14 +15614,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="57"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="130"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:7" ht="12">
       <c r="A2" s="58"/>
@@ -15658,10 +15662,10 @@
       <c r="B4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="115"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
         <v>30</v>
@@ -15675,10 +15679,10 @@
       <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="115"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
@@ -15688,10 +15692,10 @@
       <c r="B6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="104"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
@@ -15825,10 +15829,10 @@
       <c r="E28" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="115" t="s">
+      <c r="F28" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="131"/>
+      <c r="G28" s="139"/>
     </row>
     <row r="29" spans="1:7" s="66" customFormat="1" ht="12">
       <c r="A29" s="62"/>
@@ -15842,10 +15846,10 @@
         <v>80</v>
       </c>
       <c r="E29" s="65"/>
-      <c r="F29" s="125" t="s">
+      <c r="F29" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="126"/>
+      <c r="G29" s="134"/>
     </row>
     <row r="30" spans="1:7" s="66" customFormat="1" ht="12">
       <c r="A30" s="62"/>
@@ -15859,10 +15863,10 @@
         <v>80</v>
       </c>
       <c r="E30" s="65"/>
-      <c r="F30" s="125" t="s">
+      <c r="F30" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="126"/>
+      <c r="G30" s="134"/>
     </row>
     <row r="31" spans="1:7" s="66" customFormat="1" ht="12">
       <c r="A31" s="62"/>
@@ -15876,10 +15880,10 @@
         <v>80</v>
       </c>
       <c r="E31" s="64"/>
-      <c r="F31" s="125" t="s">
+      <c r="F31" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="126"/>
+      <c r="G31" s="134"/>
     </row>
     <row r="32" spans="1:7" ht="12.75" thickBot="1">
       <c r="A32" s="58"/>
@@ -15893,10 +15897,10 @@
         <v>80</v>
       </c>
       <c r="E32" s="31"/>
-      <c r="F32" s="104" t="s">
+      <c r="F32" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="127"/>
+      <c r="G32" s="135"/>
     </row>
     <row r="33" spans="1:7" ht="13.5">
       <c r="A33" s="61"/>
@@ -16000,7 +16004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9187EFC9-C0DA-43BD-B3C9-18B62DD34B38}">
   <dimension ref="A1:G998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -16019,14 +16023,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="70"/>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="71"/>
@@ -16067,10 +16071,10 @@
       <c r="B4" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="116"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="73"/>
       <c r="F4" s="73" t="s">
         <v>30</v>
@@ -16084,10 +16088,10 @@
       <c r="B5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="116"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
       <c r="G5" s="77"/>
@@ -16097,10 +16101,10 @@
       <c r="B6" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
       <c r="G6" s="81"/>
@@ -16234,10 +16238,10 @@
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="116" t="s">
+      <c r="F28" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="132"/>
+      <c r="G28" s="141"/>
     </row>
     <row r="29" spans="1:7" ht="14.1" customHeight="1">
       <c r="A29" s="71"/>
@@ -16251,7 +16255,7 @@
         <v>113</v>
       </c>
       <c r="E29" s="84"/>
-      <c r="F29" s="85" t="s">
+      <c r="F29" s="103" t="s">
         <v>114</v>
       </c>
       <c r="G29" s="85"/>
@@ -16268,10 +16272,10 @@
         <v>116</v>
       </c>
       <c r="E30" s="48"/>
-      <c r="F30" s="116" t="s">
+      <c r="F30" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="132"/>
+      <c r="G30" s="141"/>
     </row>
     <row r="31" spans="1:7" ht="18.75">
       <c r="A31" s="71"/>
@@ -16287,10 +16291,10 @@
       <c r="E31" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="138" t="s">
+      <c r="F31" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="132"/>
+      <c r="G31" s="141"/>
     </row>
     <row r="32" spans="1:7" ht="18.75">
       <c r="A32" s="71"/>
@@ -16306,10 +16310,10 @@
       <c r="E32" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="138" t="s">
+      <c r="F32" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="132"/>
+      <c r="G32" s="141"/>
     </row>
     <row r="33" spans="1:7" ht="18.75">
       <c r="A33" s="71"/>
@@ -16323,10 +16327,10 @@
         <v>126</v>
       </c>
       <c r="E33" s="48"/>
-      <c r="F33" s="138" t="s">
+      <c r="F33" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="132"/>
+      <c r="G33" s="141"/>
     </row>
     <row r="34" spans="1:7" ht="18.75">
       <c r="A34" s="71"/>
@@ -16340,10 +16344,10 @@
         <v>53</v>
       </c>
       <c r="E34" s="48"/>
-      <c r="F34" s="138" t="s">
+      <c r="F34" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="132"/>
+      <c r="G34" s="141"/>
     </row>
     <row r="35" spans="1:7" ht="19.5" thickBot="1">
       <c r="A35" s="71"/>
@@ -16351,8 +16355,8 @@
       <c r="C35" s="88"/>
       <c r="D35" s="88"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="140"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
     </row>
     <row r="36" spans="1:7" ht="18.75">
       <c r="A36" s="82"/>
@@ -19269,17 +19273,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19310,14 +19314,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="70"/>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="71"/>
@@ -19358,10 +19362,10 @@
       <c r="B4" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="116"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="73"/>
       <c r="F4" s="73" t="s">
         <v>30</v>
@@ -19375,10 +19379,10 @@
       <c r="B5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="116"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
       <c r="G5" s="77"/>
@@ -19388,10 +19392,10 @@
       <c r="B6" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="137">
+      <c r="C6" s="148">
         <v>2</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
       <c r="G6" s="81"/>
@@ -19525,10 +19529,10 @@
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="116" t="s">
+      <c r="F28" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="132"/>
+      <c r="G28" s="141"/>
     </row>
     <row r="29" spans="1:7" ht="18.75">
       <c r="A29" s="71"/>
@@ -19544,10 +19548,10 @@
       <c r="E29" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="141" t="s">
+      <c r="F29" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="132"/>
+      <c r="G29" s="141"/>
     </row>
     <row r="30" spans="1:7" ht="76.5">
       <c r="A30" s="71"/>
@@ -19563,10 +19567,10 @@
       <c r="E30" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="138" t="s">
+      <c r="F30" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="132"/>
+      <c r="G30" s="141"/>
     </row>
     <row r="31" spans="1:7" ht="76.5">
       <c r="A31" s="71"/>
@@ -19582,10 +19586,10 @@
       <c r="E31" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="138" t="s">
+      <c r="F31" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="132"/>
+      <c r="G31" s="141"/>
     </row>
     <row r="32" spans="1:7" ht="76.5">
       <c r="A32" s="71"/>
@@ -19599,10 +19603,10 @@
         <v>126</v>
       </c>
       <c r="E32" s="48"/>
-      <c r="F32" s="142" t="s">
+      <c r="F32" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="143"/>
+      <c r="G32" s="151"/>
     </row>
     <row r="33" spans="1:7" ht="76.5">
       <c r="A33" s="71"/>
@@ -19616,10 +19620,10 @@
         <v>126</v>
       </c>
       <c r="E33" s="48"/>
-      <c r="F33" s="142" t="s">
+      <c r="F33" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="143"/>
+      <c r="G33" s="151"/>
     </row>
     <row r="34" spans="1:7" ht="18.75">
       <c r="A34" s="71"/>
@@ -19627,8 +19631,8 @@
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
       <c r="E34" s="48"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="132"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="141"/>
     </row>
     <row r="35" spans="1:7" ht="19.5" thickBot="1">
       <c r="A35" s="71"/>
@@ -19636,8 +19640,8 @@
       <c r="C35" s="88"/>
       <c r="D35" s="88"/>
       <c r="E35" s="88"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="140"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
     </row>
     <row r="36" spans="1:7" ht="18.75">
       <c r="A36" s="82"/>
@@ -22592,14 +22596,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="70"/>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="71"/>
@@ -22640,10 +22644,10 @@
       <c r="B4" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="116"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="73"/>
       <c r="F4" s="73" t="s">
         <v>30</v>
@@ -22657,10 +22661,10 @@
       <c r="B5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="147" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="116"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
       <c r="G5" s="77"/>
@@ -22670,10 +22674,10 @@
       <c r="B6" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
       <c r="G6" s="81"/>
@@ -22807,10 +22811,10 @@
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="116" t="s">
+      <c r="F28" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="132"/>
+      <c r="G28" s="141"/>
     </row>
     <row r="29" spans="1:7" ht="18.75">
       <c r="A29" s="71"/>
@@ -22824,10 +22828,10 @@
         <v>158</v>
       </c>
       <c r="E29" s="48"/>
-      <c r="F29" s="138" t="s">
+      <c r="F29" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="132"/>
+      <c r="G29" s="141"/>
     </row>
     <row r="30" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="98"/>
@@ -22843,10 +22847,10 @@
       <c r="E30" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="144" t="s">
+      <c r="F30" s="152" t="s">
         <v>162</v>
       </c>
-      <c r="G30" s="145"/>
+      <c r="G30" s="153"/>
     </row>
     <row r="31" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A31" s="98"/>
@@ -22862,10 +22866,10 @@
       <c r="E31" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="144" t="s">
+      <c r="F31" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="145"/>
+      <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A32" s="98"/>
@@ -22879,8 +22883,8 @@
         <v>126</v>
       </c>
       <c r="E32" s="100"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="145"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="153"/>
     </row>
     <row r="33" spans="1:7" ht="18.75">
       <c r="A33" s="71"/>
@@ -22888,8 +22892,8 @@
       <c r="C33" s="48"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="132"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="141"/>
     </row>
     <row r="34" spans="1:7" ht="18.75">
       <c r="A34" s="71"/>
@@ -22897,8 +22901,8 @@
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
       <c r="E34" s="48"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="132"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="141"/>
     </row>
     <row r="35" spans="1:7" ht="19.5" thickBot="1">
       <c r="A35" s="71"/>
@@ -22906,8 +22910,8 @@
       <c r="C35" s="88"/>
       <c r="D35" s="88"/>
       <c r="E35" s="88"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="140"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
     </row>
     <row r="36" spans="1:7" ht="18.75">
       <c r="A36" s="82"/>
